--- a/src/analysis_examples/circadb/results_jtk/cosinor_10426098_creld2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10426098_creld2_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24532654631080592, 0.37658396432591595]</t>
+          <t>[0.24748228265220207, 0.3744282279845198]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.507579255350834e-09</v>
+        <v>1.396674553788557e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.507579255350834e-09</v>
+        <v>1.396674553788557e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.622684493746079</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8365266363327715, -1.4088423511593868]</t>
+          <t>[-1.8491055858966945, -1.3962634015954638]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.030109579389318e-13</v>
+        <v>1.217692613408872e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>4.030109579389318e-13</v>
+        <v>1.217692613408872e-12</v>
       </c>
       <c r="S2" t="n">
         <v>0.383691736581144</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.34182667839383346, 0.4255567947684545]</t>
+          <t>[0.3418071014699631, 0.4255763716923248]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>6.025165165165298</v>
       </c>
       <c r="X2" t="n">
-        <v>5.231151151151267</v>
+        <v>5.184444444444559</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.819179179179328</v>
+        <v>6.865885885886036</v>
       </c>
     </row>
   </sheetData>
